--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>137743.8808182021</v>
+        <v>23785200.3150381</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137743.8808182021</v>
+        <v>23785200.3150381</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76598.04891577481</v>
+        <v>9612124.86562044</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76598.04891577481</v>
+        <v>9612124.86562044</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608024369.646833</v>
+        <v>54583036.71927571</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12094.84511918951</v>
+        <v>1166961.097091008</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24101.62684616908</v>
+        <v>2316397.579132235</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36108.40857314862</v>
+        <v>3465834.061173461</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50083.55817811659</v>
+        <v>4394884.483267862</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61893.86081066525</v>
+        <v>5528497.70995857</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73844.68986449271</v>
+        <v>6685845.45730483</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>85795.51891832017</v>
+        <v>7843193.204651087</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>97746.34797214763</v>
+        <v>9000540.951997338</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>111649.1567776091</v>
+        <v>9938228.062062116</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>123210.9990920643</v>
+        <v>11099879.84698687</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>134928.7278277983</v>
+        <v>12288501.35256719</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>146646.4565635324</v>
+        <v>13477122.8581475</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>158364.1852992664</v>
+        <v>14665744.36372781</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>172084.4936687747</v>
+        <v>15628853.4999498</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>192585.58953782</v>
+        <v>15916308.95735395</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
